--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,154 +40,181 @@
     <t>name</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>well</t>
@@ -196,124 +223,124 @@
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>give</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>give</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>san</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -671,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.96</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -790,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
         <v>24</v>
@@ -808,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8846153846153846</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -890,38 +917,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8620689655172413</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L6">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>0.9148936170212766</v>
-      </c>
-      <c r="L6">
-        <v>43</v>
-      </c>
-      <c r="M6">
-        <v>43</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -932,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8611111111111112</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9014084507042254</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8493150684931506</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C8">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.8780487804878049</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8205128205128205</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8157894736842105</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1108,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1140,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.859375</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8431372549019608</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,49 +1267,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13">
+        <v>0.852112676056338</v>
+      </c>
+      <c r="L13">
+        <v>121</v>
+      </c>
+      <c r="M13">
+        <v>121</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>21</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <v>30</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6756756756756757</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>0.8301886792452831</v>
@@ -1340,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6756756756756757</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>0.8275862068965517</v>
@@ -1390,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6451612903225806</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8076923076923077</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6129032258064516</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.79375</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L17">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.7859007832898173</v>
+        <v>0.82</v>
       </c>
       <c r="L18">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5678294573643411</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C19">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5490196078431373</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.7875</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5436241610738255</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C21">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.723404255319149</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1682,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5132275132275133</v>
+        <v>0.6104651162790697</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7186440677966102</v>
+        <v>0.7728459530026109</v>
       </c>
       <c r="L22">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="M22">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5637583892617449</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.6976744186046512</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4933333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.6617647058823529</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4888888888888889</v>
+        <v>0.52</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1858,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1890,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4464285714285715</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.6461538461538462</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4415584415584415</v>
+        <v>0.475</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.6458333333333334</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,13 +2017,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.423728813559322</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2008,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.6443514644351465</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L28">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="M28">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3818181818181818</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2058,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.6301369863013698</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +2117,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3559322033898305</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2108,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.6292134831460674</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2132,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2140,13 +2167,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.325</v>
+        <v>0.3875</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2158,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.578125</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2190,13 +2217,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3134920634920635</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2208,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.5769230769230769</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2232,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2240,13 +2267,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1689008042895442</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C33">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D33">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2258,97 +2285,169 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.5757575757575758</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="C34">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>0.02</v>
+      </c>
+      <c r="F34">
+        <v>0.98</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>308</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.009106239460370995</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>169</v>
+      </c>
+      <c r="E35">
+        <v>0.84</v>
+      </c>
+      <c r="F35">
+        <v>0.16</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2938</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L35">
+        <v>43</v>
+      </c>
+      <c r="M35">
+        <v>43</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.006099518459069021</v>
+      </c>
+      <c r="C36">
         <v>19</v>
       </c>
-      <c r="M33">
-        <v>19</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L34">
-        <v>20</v>
-      </c>
-      <c r="M34">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.525</v>
-      </c>
-      <c r="L35">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>21</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="D36">
+        <v>105</v>
+      </c>
+      <c r="E36">
+        <v>0.82</v>
+      </c>
+      <c r="F36">
+        <v>0.18</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3096</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.5142857142857142</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2365,16 +2464,16 @@
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.4666666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2386,21 +2485,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.423728813559322</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2412,73 +2511,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.360655737704918</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>22</v>
-      </c>
-      <c r="M39">
-        <v>22</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.3023255813953488</v>
+        <v>0.525</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.2315789473684211</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2490,21 +2589,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.2248803827751196</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L42">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2516,21 +2615,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>324</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.2047244094488189</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2542,47 +2641,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.2019230769230769</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="L44">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>332</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.1627906976744186</v>
+        <v>0.2559808612440191</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2594,73 +2693,73 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>180</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.1582278481012658</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.1428571428571428</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.1395348837209302</v>
+        <v>0.2</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2672,47 +2771,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.1279069767441861</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.1253822629969419</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2724,21 +2823,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>286</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.1151515151515152</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2750,99 +2849,99 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.1052631578947368</v>
+        <v>0.1610576923076923</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>238</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K53">
-        <v>0.1048034934497817</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.09766925638179801</v>
+        <v>0.1410974244120941</v>
       </c>
       <c r="L54">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="M54">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>813</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K55">
-        <v>0.09060402684563758</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L55">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2854,73 +2953,73 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>813</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.07550077041602465</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L56">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M56">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>600</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.07501172058134084</v>
+        <v>0.1188888888888889</v>
       </c>
       <c r="L57">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="M57">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1973</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.06689734717416378</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L58">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2932,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>809</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.05761316872427984</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2958,85 +3057,293 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.0203751617076326</v>
+        <v>0.1015037593984962</v>
       </c>
       <c r="L60">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>3029</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.01968911917098446</v>
+        <v>0.09837962962962964</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="N61">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>946</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.01128880526810913</v>
+        <v>0.09104938271604938</v>
       </c>
       <c r="L62">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M62">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N62">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>3153</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63">
+        <v>0.08407703147017379</v>
+      </c>
+      <c r="L63">
+        <v>179</v>
+      </c>
+      <c r="M63">
+        <v>193</v>
+      </c>
+      <c r="N63">
+        <v>0.93</v>
+      </c>
+      <c r="O63">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L64">
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="N64">
+        <v>0.9</v>
+      </c>
+      <c r="O64">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K65">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L65">
+        <v>22</v>
+      </c>
+      <c r="M65">
+        <v>22</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66">
+        <v>0.04610389610389611</v>
+      </c>
+      <c r="L66">
+        <v>142</v>
+      </c>
+      <c r="M66">
+        <v>169</v>
+      </c>
+      <c r="N66">
+        <v>0.84</v>
+      </c>
+      <c r="O66">
+        <v>0.16</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67">
+        <v>0.03525046382189239</v>
+      </c>
+      <c r="L67">
+        <v>19</v>
+      </c>
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67">
+        <v>0.76</v>
+      </c>
+      <c r="O67">
+        <v>0.24</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K68">
+        <v>0.03215767634854771</v>
+      </c>
+      <c r="L68">
+        <v>31</v>
+      </c>
+      <c r="M68">
+        <v>35</v>
+      </c>
+      <c r="N68">
+        <v>0.89</v>
+      </c>
+      <c r="O68">
+        <v>0.11</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="L69">
+        <v>86</v>
+      </c>
+      <c r="M69">
+        <v>105</v>
+      </c>
+      <c r="N69">
+        <v>0.82</v>
+      </c>
+      <c r="O69">
+        <v>0.18</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K70">
+        <v>0.0199479618386817</v>
+      </c>
+      <c r="L70">
+        <v>23</v>
+      </c>
+      <c r="M70">
+        <v>31</v>
+      </c>
+      <c r="N70">
+        <v>0.74</v>
+      </c>
+      <c r="O70">
+        <v>0.26</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
